--- a/proyecto2/scripts/Subredes.xlsx
+++ b/proyecto2/scripts/Subredes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodro\Desktop\2023\2S\REDES1\Laboratorio\Repositorio\redes1_pareja33\proyecto2\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2792BABA-37BB-435A-83C0-133FC19BC34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37693E5D-E8F7-4FAA-8404-74EAC617A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13410" yWindow="2790" windowWidth="17130" windowHeight="12375" xr2:uid="{852E2FAA-E108-494D-BA55-D4D071125539}"/>
+    <workbookView xWindow="8805" yWindow="1260" windowWidth="17130" windowHeight="12375" xr2:uid="{852E2FAA-E108-494D-BA55-D4D071125539}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
   <si>
     <t>VLAN</t>
   </si>
@@ -144,6 +144,51 @@
   </si>
   <si>
     <t>172.133.2.71</t>
+  </si>
+  <si>
+    <t>Sede Central</t>
+  </si>
+  <si>
+    <t>Conexion Central</t>
+  </si>
+  <si>
+    <t>9.0.0.0/28</t>
+  </si>
+  <si>
+    <t>FLSM</t>
+  </si>
+  <si>
+    <t>9.0.0.0</t>
+  </si>
+  <si>
+    <t>255.255.255.252</t>
+  </si>
+  <si>
+    <t>9.0.0.1</t>
+  </si>
+  <si>
+    <t>9.0.0.2</t>
+  </si>
+  <si>
+    <t>9.0.0.3</t>
+  </si>
+  <si>
+    <t>9.0.0.4</t>
+  </si>
+  <si>
+    <t>9.0.0.5</t>
+  </si>
+  <si>
+    <t>9.0.0.6</t>
+  </si>
+  <si>
+    <t>9.0.0.7</t>
+  </si>
+  <si>
+    <t>Central - C_1</t>
+  </si>
+  <si>
+    <t>Central - C_2</t>
   </si>
 </sst>
 </file>
@@ -185,9 +230,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -502,16 +550,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9C8E09-303D-4A6C-B62F-B99CC6624F15}">
-  <dimension ref="B3:H19"/>
+  <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.28515625" style="2" customWidth="1"/>
     <col min="4" max="4" width="13.42578125" customWidth="1"/>
     <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.5703125" bestFit="1" customWidth="1"/>
@@ -519,11 +567,16 @@
     <col min="8" max="8" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="D3" t="s">
@@ -537,7 +590,7 @@
       <c r="B4" t="s">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>33</v>
       </c>
       <c r="D4">
@@ -551,7 +604,7 @@
       <c r="B5" t="s">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>13</v>
       </c>
       <c r="D5">
@@ -562,7 +615,7 @@
       <c r="B6" t="s">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>23</v>
       </c>
       <c r="D6">
@@ -573,7 +626,7 @@
       <c r="B7" t="s">
         <v>4</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>43</v>
       </c>
       <c r="D7">
@@ -595,7 +648,7 @@
       <c r="B12" t="s">
         <v>7</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="2" t="s">
         <v>12</v>
       </c>
       <c r="D12" t="s">
@@ -612,7 +665,7 @@
       <c r="B13" t="s">
         <v>8</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" t="s">
@@ -626,6 +679,9 @@
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="D15" t="s">
         <v>7</v>
       </c>
@@ -646,7 +702,7 @@
       <c r="B16" t="s">
         <v>2</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>21</v>
       </c>
       <c r="D16" t="s">
@@ -669,7 +725,7 @@
       <c r="B17" t="s">
         <v>3</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>12</v>
       </c>
       <c r="D17" t="s">
@@ -692,7 +748,7 @@
       <c r="B18" t="s">
         <v>1</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>9</v>
       </c>
       <c r="D18" t="s">
@@ -715,7 +771,7 @@
       <c r="B19" t="s">
         <v>4</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>4</v>
       </c>
       <c r="D19" t="s">
@@ -732,6 +788,92 @@
       </c>
       <c r="H19" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>49</v>
+      </c>
+      <c r="C29" s="2">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>40</v>
+      </c>
+      <c r="E29" t="s">
+        <v>41</v>
+      </c>
+      <c r="F29" t="s">
+        <v>42</v>
+      </c>
+      <c r="G29" t="s">
+        <v>43</v>
+      </c>
+      <c r="H29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>50</v>
+      </c>
+      <c r="C30" s="2">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>41</v>
+      </c>
+      <c r="F30" t="s">
+        <v>46</v>
+      </c>
+      <c r="G30" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/proyecto2/scripts/Subredes.xlsx
+++ b/proyecto2/scripts/Subredes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rodro\Desktop\2023\2S\REDES1\Laboratorio\Repositorio\redes1_pareja33\proyecto2\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37693E5D-E8F7-4FAA-8404-74EAC617A8FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6F51427-EB4B-4C41-98C6-D20B663FFFCE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8805" yWindow="1260" windowWidth="17130" windowHeight="12375" xr2:uid="{852E2FAA-E108-494D-BA55-D4D071125539}"/>
+    <workbookView xWindow="12675" yWindow="1455" windowWidth="17130" windowHeight="12375" xr2:uid="{852E2FAA-E108-494D-BA55-D4D071125539}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -552,8 +552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9C8E09-303D-4A6C-B62F-B99CC6624F15}">
   <dimension ref="B2:H30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
